--- a/data/nodeData.xlsx
+++ b/data/nodeData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\OneDrive\Documentos\Unimet\Modelacion Sist Redes\Proyectos\Proyecto 2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0EF3C3-FC65-496A-A199-38FC521734D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2D0957-F207-4F1C-92D6-B2F0567D64E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="10">
-  <si>
-    <t>code</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
   <si>
     <t>name</t>
   </si>
@@ -50,6 +47,12 @@
   </si>
   <si>
     <t>holgura</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>duration</t>
   </si>
 </sst>
 </file>
@@ -432,158 +435,172 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.90625" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.90625" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
